--- a/feedback.xlsx
+++ b/feedback.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomdoughty/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomdoughty/Desktop/nhs/my-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3BC427-5E25-6F48-A161-258EBD3319A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23002D7D-042D-8349-A574-8A589C2C4F36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{9DC5E648-F2FF-E346-892E-7D0B99601E16}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
   <si>
     <t>tom.com</t>
   </si>
@@ -96,23 +96,35 @@
     <t>graphs</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>satisfied</t>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Satisfied</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFD1D2D3"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,8 +147,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,15 +464,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAAE0B70-9789-F64A-8BF7-16B7F4FCADA9}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -467,359 +480,363 @@
         <v>21</v>
       </c>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="b">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" t="b">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="b">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="b">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="b">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" t="b">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="b">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" t="b">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" t="b">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" t="b">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" t="b">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" t="b">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" t="b">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="b">
         <v>0</v>
       </c>
     </row>
